--- a/KIID_manual_Analysis.xlsx
+++ b/KIID_manual_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpich\Desktop\MFI-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E41FE2E-2AB9-4F31-BFEC-C80722EA0D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A560936-31DB-498A-A1BD-17E74D67D981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,40 +363,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -407,18 +377,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -436,6 +394,48 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,9 +734,9 @@
     <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="33" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="33" customWidth="1"/>
-    <col min="13" max="20" width="8.88671875" style="33"/>
+    <col min="11" max="11" width="10.44140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="19" customWidth="1"/>
+    <col min="13" max="20" width="8.88671875" style="19"/>
     <col min="22" max="22" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -777,294 +777,294 @@
       <c r="T3"/>
     </row>
     <row r="4" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="26" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
     </row>
     <row r="5" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
     </row>
     <row r="6" spans="2:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="11">
         <v>2009</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="11">
         <v>2010</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="11">
         <v>2011</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="11">
         <v>2012</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="11">
         <v>2013</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="11">
         <v>2014</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="11">
         <v>2015</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="11">
         <v>2016</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="11">
         <v>2017</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="11">
         <v>2018</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>4</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="9">
         <v>0</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="23">
+      <c r="G8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="13">
         <v>8.6E-3</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="28">
+      <c r="J8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="14">
         <v>0.20899999999999999</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="12">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="12">
         <v>-6.9000000000000006E-2</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="12">
         <v>0.23799999999999999</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="12">
         <v>0.13700000000000001</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="12">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="15">
         <v>0.09</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="12">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="12">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="12">
         <v>0.104</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="9">
         <v>4</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="16">
         <v>0.05</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="13">
         <v>0.01</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="13">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="28">
+      <c r="J9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="14">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="14">
         <v>0.123</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="14">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="14">
         <v>-2E-3</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="14">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="14">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="14">
         <v>-0.04</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="9">
         <v>4</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="13">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="23">
+      <c r="H10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="28">
+      <c r="J10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="14">
         <v>-2E-3</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="14">
         <v>0.04</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="14">
         <v>-6.3E-2</v>
       </c>
     </row>
@@ -1072,441 +1072,441 @@
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="9">
         <v>3</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="9">
         <v>1</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="13">
         <v>3.1E-2</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="23">
+      <c r="H13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="13">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="P13" s="28">
+      <c r="J13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="14">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="14">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="14">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="T13" s="28">
+      <c r="T13" s="14">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="9">
         <v>4</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="9">
         <v>0</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="23">
+      <c r="G14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="13">
         <v>1.44E-2</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="28">
+      <c r="J14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="14">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="14">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="14">
         <v>0.106</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="14">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="14">
         <v>-6.2E-2</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="14">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="14">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="R14" s="28">
+      <c r="R14" s="14">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="14">
         <v>-1E-3</v>
       </c>
-      <c r="T14" s="28">
+      <c r="T14" s="14">
         <v>-4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="9">
         <v>3</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="9">
         <v>0</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="13">
         <v>0.05</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="23">
+      <c r="H15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="13">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="22">
+      <c r="J15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="12">
         <v>0.13300000000000001</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="12">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="20">
         <v>1.9E-2</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="12">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="12">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="12">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="12">
         <v>1.4E-2</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="12">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="9">
         <v>3</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="9">
         <v>1</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="23">
+      <c r="G16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="28">
+      <c r="J16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="14">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="14">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="14">
         <v>0.129</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="14">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="14">
         <v>-9.2999999999999999E-2</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="14">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="14">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R16" s="28">
+      <c r="R16" s="14">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="T16" s="28">
+      <c r="T16" s="14">
         <v>-1.9E-2</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="9">
         <v>3</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="9">
         <v>1</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="13">
         <v>0.05</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="23">
+      <c r="H17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="13">
         <v>0.01</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q17" s="28">
+      <c r="J17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="14">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="14">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="S17" s="28">
+      <c r="S17" s="14">
         <v>4.7E-2</v>
       </c>
-      <c r="T17" s="28">
+      <c r="T17" s="14">
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="9">
         <v>3</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="9">
         <v>0</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="13">
         <v>0.03</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="23">
+      <c r="H18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="13">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="J18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="28">
+      <c r="J18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="14">
         <v>0.25800000000000001</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="14">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="14">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="14">
         <v>0.11700000000000001</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="14">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="14">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="14">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="14">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="14">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="T18" s="28">
+      <c r="T18" s="14">
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="9">
         <v>1</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="13">
         <v>0.06</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="23">
+      <c r="H19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="28">
+      <c r="J19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="14">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="14">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="14">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="14">
         <v>-1E-3</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="14">
         <v>1E-3</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="14">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="14">
         <v>0.01</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="T19" s="28">
+      <c r="T19" s="14">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -1518,52 +1518,52 @@
       <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="9">
         <v>2</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="9">
         <v>1</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="13">
         <v>0.02</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="23">
+      <c r="H20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="13">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="28">
+      <c r="J20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="14">
         <v>0.01</v>
       </c>
-      <c r="Q20" s="28">
+      <c r="Q20" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="R20" s="28">
+      <c r="R20" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="14">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="T20" s="28">
+      <c r="T20" s="14">
         <v>0.01</v>
       </c>
     </row>
@@ -1571,213 +1571,213 @@
       <c r="B21" s="4"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="9">
         <v>5</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="9">
         <v>0</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="23">
+      <c r="H23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="13">
         <v>1.47E-2</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="28">
+      <c r="J23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="14">
         <v>0.191</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="14">
         <v>0.182</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="14">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="14">
         <v>0.11600000000000001</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="14">
         <v>0.24</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="14">
         <v>0.20100000000000001</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="14">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="14">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="S23" s="28">
+      <c r="S23" s="14">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="T23" s="28">
+      <c r="T23" s="14">
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="9">
         <v>5</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="9">
         <v>0</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="13">
         <v>0.01</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="23">
+      <c r="H24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" s="28">
+      <c r="J24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="14">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="14">
         <v>0.1</v>
       </c>
-      <c r="O24" s="28">
+      <c r="O24" s="14">
         <v>0.39800000000000002</v>
       </c>
-      <c r="P24" s="28">
+      <c r="P24" s="14">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="14">
         <v>0.19800000000000001</v>
       </c>
-      <c r="R24" s="28">
+      <c r="R24" s="14">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="S24" s="28">
+      <c r="S24" s="14">
         <v>0.498</v>
       </c>
-      <c r="T24" s="28">
+      <c r="T24" s="14">
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="9">
         <v>5</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="9">
         <v>1</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="13">
         <v>0.05</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="23">
+      <c r="H25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="13">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="P25" s="28">
+      <c r="J25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="14">
         <v>0.16600000000000001</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R25" s="28">
+      <c r="R25" s="14">
         <v>2.3E-2</v>
       </c>
-      <c r="S25" s="28">
+      <c r="S25" s="14">
         <v>0.15</v>
       </c>
-      <c r="T25" s="28">
+      <c r="T25" s="14">
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
@@ -1785,157 +1785,157 @@
       <c r="B26" s="5"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="9">
         <v>6</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="9">
         <v>0</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="23">
+      <c r="G28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="13">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="28">
+      <c r="J28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="14">
         <v>0.35699999999999998</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="14">
         <v>0.26600000000000001</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="14">
         <v>-0.153</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="14">
         <v>0.218</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="14">
         <v>0.252</v>
       </c>
-      <c r="P28" s="28">
+      <c r="P28" s="14">
         <v>2E-3</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="14">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="R28" s="28">
+      <c r="R28" s="14">
         <v>0.108</v>
       </c>
-      <c r="S28" s="28">
+      <c r="S28" s="14">
         <v>0.153</v>
       </c>
-      <c r="T28" s="28">
+      <c r="T28" s="14">
         <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="9">
         <v>5</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="9">
         <v>0</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="23">
+      <c r="G29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="13">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O29" s="28">
+      <c r="J29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="14">
         <v>0.307</v>
       </c>
-      <c r="P29" s="28">
+      <c r="P29" s="14">
         <v>0.13100000000000001</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="14">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="R29" s="28">
+      <c r="R29" s="14">
         <v>0.113</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="14">
         <v>0.21</v>
       </c>
-      <c r="T29" s="28">
+      <c r="T29" s="14">
         <v>-6.3E-2</v>
       </c>
     </row>
@@ -1947,52 +1947,52 @@
       <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="9">
         <v>3</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="9">
         <v>1</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="13">
         <v>0.05</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="13">
         <v>0.05</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="S30" s="28">
+      <c r="J30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S30" s="14">
         <v>4.7E-2</v>
       </c>
-      <c r="T30" s="28">
+      <c r="T30" s="14">
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
@@ -2000,221 +2000,221 @@
       <c r="B31" s="6"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="9">
         <v>5</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="9">
         <v>1</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="13">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="13">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="13">
         <v>1.04E-2</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="P33" s="28">
+      <c r="J33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="Q33" s="28">
+      <c r="Q33" s="14">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="R33" s="28">
+      <c r="R33" s="14">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="14">
         <v>0.1668</v>
       </c>
-      <c r="T33" s="28">
+      <c r="T33" s="14">
         <v>-0.17610000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="9">
         <v>4</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="9">
         <v>0</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="13">
         <v>0.03</v>
       </c>
-      <c r="H34" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="23">
+      <c r="H34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="13">
         <v>1.54E-2</v>
       </c>
-      <c r="J34" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" s="28">
+      <c r="J34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="14">
         <v>0.23799999999999999</v>
       </c>
-      <c r="L34" s="28">
+      <c r="L34" s="14">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="14">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="N34" s="28">
+      <c r="N34" s="14">
         <v>0.13600000000000001</v>
       </c>
-      <c r="O34" s="28">
+      <c r="O34" s="14">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="P34" s="28">
+      <c r="P34" s="14">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="14">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="R34" s="28">
+      <c r="R34" s="14">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="14">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="T34" s="28">
+      <c r="T34" s="14">
         <v>-0.108</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
@@ -2225,7 +2225,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="32"/>
+      <c r="K38" s="18"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
@@ -2236,7 +2236,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="32"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
@@ -2247,7 +2247,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="32"/>
+      <c r="K40" s="18"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
@@ -2258,7 +2258,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="32"/>
+      <c r="K41" s="18"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
@@ -2269,7 +2269,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="32"/>
+      <c r="K42" s="18"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
@@ -2279,18 +2279,18 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="32"/>
+      <c r="K43" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="E4:F5"/>
     <mergeCell ref="G4:J5"/>
     <mergeCell ref="K4:T5"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B19"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="E4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
